--- a/Hardware/Tabel for INA114.xlsx
+++ b/Hardware/Tabel for INA114.xlsx
@@ -7,17 +7,16 @@
     <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Ark1" sheetId="1" r:id="rId1"/>
+    <sheet name="overordnet" sheetId="1" r:id="rId1"/>
     <sheet name="Ark2" sheetId="2" r:id="rId2"/>
     <sheet name="Ark3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>Modstand</t>
   </si>
@@ -28,24 +27,15 @@
     <t>1 V</t>
   </si>
   <si>
-    <t>0,9995 V</t>
-  </si>
-  <si>
     <t>50 kΩ</t>
   </si>
   <si>
-    <t>2 V</t>
-  </si>
-  <si>
     <t>1,9998 V</t>
   </si>
   <si>
     <t>25 kΩ</t>
   </si>
   <si>
-    <t>3 V</t>
-  </si>
-  <si>
     <t>3,005 V</t>
   </si>
   <si>
@@ -71,9 +61,6 @@
     <t>500 mV</t>
   </si>
   <si>
-    <t>6 V</t>
-  </si>
-  <si>
     <t>5500 mV</t>
   </si>
   <si>
@@ -124,6 +111,54 @@
         <scheme val="minor"/>
       </rPr>
       <t>(gain*spændingsdifference)</t>
+    </r>
+  </si>
+  <si>
+    <t>∞ Ω</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spændingsdifference </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(der påføres) </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">∞ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spændingsdifference </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(der påføres)  Endhed: mV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Forventet spænding resultat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(gain*spændingsdifference) Enhed: mV</t>
     </r>
   </si>
   <si>
@@ -149,14 +184,6 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-  </si>
-  <si>
-    <t>∞ Ω</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spændingsdifference </t>
-    </r>
     <r>
       <rPr>
         <sz val="8"/>
@@ -164,15 +191,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">(der påføres) </t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">∞ </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spændingsdifference </t>
+      <t>Enhed: mV</t>
+    </r>
+  </si>
+  <si>
+    <t>3,9 mV</t>
+  </si>
+  <si>
+    <t>199 mV</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Faktisk spænding resultat </t>
     </r>
     <r>
       <rPr>
@@ -181,35 +211,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>(der påføres)  Endhed: mV</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Forventet spænding resultat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(gain*spændingsdifference) Enhed: mV</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Faktisk spænding resultat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(aflæses på voltmeter i waveform)</t>
+      <t>(aflæses på count digital multimeter)</t>
     </r>
     <r>
       <rPr>
@@ -221,24 +223,30 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Enhed: mV</t>
-    </r>
-  </si>
-  <si>
-    <t>5,0 mV</t>
-  </si>
-  <si>
-    <t>255 mV</t>
-  </si>
-  <si>
-    <t>193,3 mV</t>
+  </si>
+  <si>
+    <t>6000 mV</t>
+  </si>
+  <si>
+    <t>3000 mV</t>
+  </si>
+  <si>
+    <t>2000 mV</t>
+  </si>
+  <si>
+    <t>1000 mV</t>
+  </si>
+  <si>
+    <t>999,5 mV</t>
+  </si>
+  <si>
+    <t>3,76 mV</t>
+  </si>
+  <si>
+    <t>1883 mV</t>
+  </si>
+  <si>
+    <t>1878 mV</t>
   </si>
 </sst>
 </file>
@@ -361,7 +369,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -385,6 +393,10 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -393,202 +405,6 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="da-DK"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>Gain som funktion af modstand</c:v>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'Ark1'!$A$15:$A$19</c:f>
-              <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>25000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'Ark1'!$F$15:$F$19</c:f>
-              <c:numCache>
-                <c:formatCode>Standard</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1.9998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.0049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8390000000000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.923999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-        </c:ser>
-        <c:axId val="80978304"/>
-        <c:axId val="80979840"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="80978304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="da-DK"/>
-                  <a:t>MOdstand</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t> (</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="el-GR" baseline="0"/>
-                  <a:t>Ω</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="da-DK" baseline="0"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="da-DK"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="Standard" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80979840"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="80979840"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Faktisk gain resultat</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-        </c:title>
-        <c:numFmt formatCode="Standard" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80978304"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.6813193350831146"/>
-          <c:y val="0.77523373060939782"/>
-          <c:w val="0.25684708797466871"/>
-          <c:h val="9.4761767305253514E-2"/>
-        </c:manualLayout>
-      </c:layout>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>254001</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>402168</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Diagram 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -878,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,21 +716,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -923,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>0.99950000000000006</v>
@@ -934,7 +750,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -943,10 +759,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2">
         <v>1.9998</v>
@@ -954,7 +770,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -963,10 +779,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
         <v>3.0049999999999999</v>
@@ -974,7 +790,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2">
         <v>6</v>
@@ -983,10 +799,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2">
         <v>5.8390000000000004</v>
@@ -994,19 +810,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>10.923999999999999</v>
@@ -1014,39 +830,47 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B7" s="3">
         <v>51</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
+        <v>51</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B8" s="4">
         <v>501</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+        <v>32</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="10">
+        <v>500.8</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B9" s="4">
         <v>801</v>
@@ -1056,6 +880,9 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
     </row>
+    <row r="11" spans="1:6">
+      <c r="C11" s="9"/>
+    </row>
     <row r="13" spans="1:6" ht="56.25">
       <c r="A13" s="7" t="s">
         <v>0</v>
@@ -1064,21 +891,21 @@
         <v>1</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4">
         <v>1</v>
@@ -1158,7 +985,7 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="4">
-        <v>5</v>
+        <v>5000</v>
       </c>
       <c r="B18" s="4">
         <v>11</v>
@@ -1177,12 +1004,24 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B19" s="3">
+        <v>51</v>
+      </c>
+      <c r="C19" s="3">
+        <v>3.9</v>
+      </c>
+      <c r="D19" s="3">
+        <v>199</v>
+      </c>
+      <c r="E19" s="3">
+        <v>199</v>
+      </c>
+      <c r="F19" s="3">
+        <v>51</v>
+      </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="4"/>
@@ -1203,7 +1042,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
